--- a/gemm/Performance_Results.xlsx
+++ b/gemm/Performance_Results.xlsx
@@ -1,457 +1,5 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcurt\Documents\Riallto\gemm\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D06A9A-7DEE-471C-A181-751E42D8528C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4852087D-C968-415E-B19B-CA08377D37D7}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
-  <si>
-    <t># AIEs</t>
-  </si>
-  <si>
-    <t>Data Type</t>
-  </si>
-  <si>
-    <t>NPU Workload</t>
-  </si>
-  <si>
-    <t>Kernel Workload</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>uint8</t>
-  </si>
-  <si>
-    <t>bfloat16</t>
-  </si>
-  <si>
-    <t>Configuration</t>
-  </si>
-  <si>
-    <t>Application Workload</t>
-  </si>
-  <si>
-    <t>Application Execution Times (ms)</t>
-  </si>
-  <si>
-    <t>1024 x 1024 x 1024</t>
-  </si>
-  <si>
-    <t>NPU Execution Only</t>
-  </si>
-  <si>
-    <t>NPU  Execution  + DDR Transfer</t>
-  </si>
-  <si>
-    <t>NOTE:</t>
-  </si>
-  <si>
-    <t>Application Execution with CPU only runs the application workload in Python by calling the NumPy matmul method</t>
-  </si>
-  <si>
-    <t>bfloat16 data type refers to the data type used for NPU execution. NumPy doesn't have bfloat16 data type available, so float16 is used instead for the CPU execution</t>
-  </si>
-  <si>
-    <t>8 x 4096 x 4096</t>
-  </si>
-  <si>
-    <t>CPU Application Execution Times (ms)</t>
-  </si>
-  <si>
-    <t>NPU Application Execution Time (ms) Scaling with AIEs</t>
-  </si>
-  <si>
-    <t>CPU Dashed Line</t>
-  </si>
-  <si>
-    <t>64 x 256 x 256</t>
-  </si>
-  <si>
-    <t>32 x 128 x 128</t>
-  </si>
-  <si>
-    <t>8 x 1024 x 256</t>
-  </si>
-  <si>
-    <t>8 x 1024 x 128</t>
-  </si>
-  <si>
-    <t>64 x 64 x 64</t>
-  </si>
-  <si>
-    <t>32 x 32 x32</t>
-  </si>
-  <si>
-    <t>8 x 256 x 64</t>
-  </si>
-  <si>
-    <t>8 x 256 x 32</t>
-  </si>
-  <si>
-    <t>64 x 64 x 256</t>
-  </si>
-  <si>
-    <t>32 x 32 x 128</t>
-  </si>
-  <si>
-    <t>8 x 256 x 256</t>
-  </si>
-  <si>
-    <t>8 x 256 x 128</t>
-  </si>
-  <si>
-    <t>32 x 32 x 32</t>
-  </si>
-  <si>
-    <t>NPU</t>
-  </si>
-</sst>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="15">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -486,7 +34,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>GEMM Strong Scaling with AIEs</a:t>
+              <a:t>GEMM </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Weak</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Scaling</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -527,185 +83,11 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$18:$C$18</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>NPU</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>uint8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024 x 1024 x 1024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$17:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$18:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1281.7871809005701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>359.75167751312199</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>125.851321220397</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9981-4DE2-8699-DFBE71A0A301}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$19:$C$19</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>NPU</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>uint8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8 x 4096 x 4096</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$17:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$19:$F$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>317.50280857086102</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92.892241477966309</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.888552665710399</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9981-4DE2-8699-DFBE71A0A301}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$20:$C$20</c:f>
+              <c:f>'Initial Experiment'!$A$20:$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -746,7 +128,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$17:$F$17</c:f>
+              <c:f>'Initial Experiment'!$D$17:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -764,7 +146,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$20:$F$20</c:f>
+              <c:f>'Initial Experiment'!$D$20:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -783,7 +165,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9981-4DE2-8699-DFBE71A0A301}"/>
+              <c16:uniqueId val="{00000002-C7BC-456A-9898-9F0562A3825D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -792,7 +174,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$21:$C$21</c:f>
+              <c:f>'Initial Experiment'!$A$21:$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -833,7 +215,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$17:$F$17</c:f>
+              <c:f>'Initial Experiment'!$D$17:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -851,7 +233,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$F$21</c:f>
+              <c:f>'Initial Experiment'!$D$21:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -870,147 +252,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9981-4DE2-8699-DFBE71A0A301}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$25:$C$25</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>CPU</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>uint8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024 x 1024 x 1024</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$31:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$32:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6179.6624978383334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6179.6624978383334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9981-4DE2-8699-DFBE71A0A301}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$26:$C$26</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>CPU</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>uint8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8 x 4096 x 4096</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$31:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$33:$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1224.1048892339002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1224.1048892339002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9981-4DE2-8699-DFBE71A0A301}"/>
+              <c16:uniqueId val="{00000003-C7BC-456A-9898-9F0562A3825D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1019,7 +261,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$27:$C$27</c:f>
+              <c:f>'Initial Experiment'!$A$27:$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1041,17 +283,33 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$31:$B$31</c:f>
+              <c:f>'Initial Experiment'!$A$31:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1066,7 +324,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$34:$B$34</c:f>
+              <c:f>'Initial Experiment'!$A$34:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1082,7 +340,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-9981-4DE2-8699-DFBE71A0A301}"/>
+              <c16:uniqueId val="{00000006-C7BC-456A-9898-9F0562A3825D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1091,7 +349,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$28:$C$28</c:f>
+              <c:f>'Initial Experiment'!$A$28:$C$28</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1113,17 +371,33 @@
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$31:$B$31</c:f>
+              <c:f>'Initial Experiment'!$A$31:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1138,7 +412,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$35:$B$35</c:f>
+              <c:f>'Initial Experiment'!$A$35:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1154,7 +428,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-9981-4DE2-8699-DFBE71A0A301}"/>
+              <c16:uniqueId val="{00000007-C7BC-456A-9898-9F0562A3825D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1168,6 +442,428 @@
         </c:dLbls>
         <c:axId val="1342627008"/>
         <c:axId val="1342631808"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Initial Experiment'!$A$18:$C$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>NPU</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>uint8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1024 x 1024 x 1024</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Initial Experiment'!$D$17:$F$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Initial Experiment'!$D$18:$F$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1281.7871809005701</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>359.75167751312199</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>125.851321220397</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-C7BC-456A-9898-9F0562A3825D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Initial Experiment'!$A$19:$C$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>NPU</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>uint8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8 x 4096 x 4096</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Initial Experiment'!$D$17:$F$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Initial Experiment'!$D$19:$F$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>317.50280857086102</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>92.892241477966309</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>35.888552665710399</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-C7BC-456A-9898-9F0562A3825D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Initial Experiment'!$A$25:$C$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>CPU</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>uint8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1024 x 1024 x 1024</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd" cmpd="dbl">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Initial Experiment'!$A$31:$B$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Initial Experiment'!$A$32:$B$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>6179.6624978383334</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6179.6624978383334</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-C7BC-456A-9898-9F0562A3825D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Initial Experiment'!$A$26:$C$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>CPU</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>uint8</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8 x 4096 x 4096</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:prstDash val="sysDash"/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Initial Experiment'!$A$31:$B$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Initial Experiment'!$A$33:$B$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>1224.1048892339002</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1224.1048892339002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-C7BC-456A-9898-9F0562A3825D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1342627008"/>
@@ -1492,7 +1188,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1532,7 +1228,47 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2048,368 +1784,3308 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>58880</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>135082</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>187036</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CC47CC-2B99-0F09-98EC-FC3B3CF82E1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3196CDE-7DD8-4B24-B46D-E8AFD451E1FA}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
+    <col min="12" max="12" width="18.77734375" customWidth="1"/>
+    <col min="13" max="13" width="31.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="J2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="24">
+        <v>5935.6141090393003</v>
+      </c>
+      <c r="N3" s="14"/>
+      <c r="O3" s="24">
+        <v>5935.6141090393003</v>
+      </c>
+      <c r="P3" s="24">
+        <v>5935.6141090393003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1228.53529453277</v>
+      </c>
+      <c r="G4" s="24">
+        <v>349.79279041290198</v>
+      </c>
+      <c r="H4" s="24">
+        <v>88.585853576660099</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="24">
+        <v>1206.1681747436501</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="24">
+        <v>1206.1681747436501</v>
+      </c>
+      <c r="P4" s="24">
+        <v>1206.1681747436501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="24">
+        <v>333.88581275939902</v>
+      </c>
+      <c r="G5" s="24">
+        <v>88.539719581604004</v>
+      </c>
+      <c r="H5" s="24">
+        <v>25.6402492523193</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="24">
+        <v>1529.72507476806</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="24">
+        <v>1529.72507476806</v>
+      </c>
+      <c r="P5" s="24">
+        <v>1529.72507476806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1305.06796836853</v>
+      </c>
+      <c r="G6" s="24">
+        <v>335.07869243621798</v>
+      </c>
+      <c r="H6" s="24">
+        <v>80.328464508056598</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="24">
+        <v>684.27348136901799</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="24">
+        <v>684.27348136901799</v>
+      </c>
+      <c r="P6" s="24">
+        <v>684.27348136901799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="24">
+        <v>623.65083694457996</v>
+      </c>
+      <c r="G7" s="24">
+        <v>172.97868728637599</v>
+      </c>
+      <c r="H7" s="24">
+        <v>55.844306945800703</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="24">
+        <v>1509.5431804656901</v>
+      </c>
+      <c r="O7" s="24">
+        <v>1509.5431804656901</v>
+      </c>
+      <c r="P7" s="24">
+        <v>1509.5431804656901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1266.8965339660599</v>
+      </c>
+      <c r="G8" s="24">
+        <v>346.66957855224598</v>
+      </c>
+      <c r="H8" s="24">
+        <v>88.450193405151296</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="24">
+        <v>644.76513862609795</v>
+      </c>
+      <c r="O8" s="24">
+        <v>644.76513862609795</v>
+      </c>
+      <c r="P8" s="24">
+        <v>644.76513862609795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="24">
+        <v>352.32584476470902</v>
+      </c>
+      <c r="G9" s="24">
+        <v>78.713274002075195</v>
+      </c>
+      <c r="H9" s="24">
+        <v>39.356470108032198</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="24">
+        <v>16.215562820434499</v>
+      </c>
+      <c r="O9" s="24">
+        <v>16.215562820434499</v>
+      </c>
+      <c r="P9" s="24">
+        <v>16.215562820434499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1307.45079517364</v>
+      </c>
+      <c r="G10" s="24">
+        <v>339.62914943695</v>
+      </c>
+      <c r="H10" s="24">
+        <v>77.983379364013601</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="24">
+        <v>38.001298904418903</v>
+      </c>
+      <c r="O10" s="24">
+        <v>38.001298904418903</v>
+      </c>
+      <c r="P10" s="24">
+        <v>38.001298904418903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="24">
+        <v>654.13141250610295</v>
+      </c>
+      <c r="G11" s="24">
+        <v>187.67244815826399</v>
+      </c>
+      <c r="H11" s="24">
+        <v>49.073696136474602</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="24">
+        <v>4772.7956771850504</v>
+      </c>
+      <c r="O11" s="24">
+        <v>4772.7956771850504</v>
+      </c>
+      <c r="P11" s="24">
+        <v>4772.7956771850504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1265.2061223983701</v>
+      </c>
+      <c r="G12" s="24">
+        <v>327.440118789672</v>
+      </c>
+      <c r="H12" s="24">
+        <v>88.159799575805593</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="24">
+        <v>1740.28944969177</v>
+      </c>
+      <c r="O12" s="24">
+        <v>1740.28944969177</v>
+      </c>
+      <c r="P12" s="24">
+        <v>1740.28944969177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="24">
+        <v>618.58625411987305</v>
+      </c>
+      <c r="G13" s="24">
+        <v>179.23693656921299</v>
+      </c>
+      <c r="H13" s="24">
+        <v>58.935165405273402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="24">
+        <v>10526.781988143901</v>
+      </c>
+      <c r="G14" s="24">
+        <v>2545.9532976150499</v>
+      </c>
+      <c r="H14" s="24">
+        <v>630.84030151367097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="24">
+        <v>647.310972213745</v>
+      </c>
+      <c r="G15" s="24">
+        <v>132.71672725677399</v>
+      </c>
+      <c r="H15" s="24">
+        <v>59.303998947143498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="24">
+        <v>2648.58510494232</v>
+      </c>
+      <c r="G16" s="24">
+        <v>636.26639842987004</v>
+      </c>
+      <c r="H16" s="24">
+        <v>181.99062347412101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1287.4226808547901</v>
+      </c>
+      <c r="G17" s="24">
+        <v>353.99408340454102</v>
+      </c>
+      <c r="H17" s="24">
+        <v>99.988222122192298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="24">
+        <v>10184.0240716934</v>
+      </c>
+      <c r="G18" s="24">
+        <v>2577.0546197891199</v>
+      </c>
+      <c r="H18" s="24">
+        <v>672.26934432983398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="24">
+        <v>711.70029640197697</v>
+      </c>
+      <c r="G19" s="24">
+        <v>109.989714622497</v>
+      </c>
+      <c r="H19" s="24">
+        <v>57.830572128295898</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="24">
+        <v>2563.27354907989</v>
+      </c>
+      <c r="G20" s="24">
+        <v>721.73857688903797</v>
+      </c>
+      <c r="H20" s="24">
+        <v>178.51066589355401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="24">
+        <v>1317.5164937973</v>
+      </c>
+      <c r="G21" s="24">
+        <v>367.87891387939402</v>
+      </c>
+      <c r="H21" s="24">
+        <v>101.938724517822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="7"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A96D9F-BFBD-46AC-A0B7-AB81248FE666}">
+  <dimension ref="A1:H93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92:E93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="24">
+        <v>1110.2327346801701</v>
+      </c>
+      <c r="H3" s="24">
+        <v>1228.53529453277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="24">
+        <v>9566.2990570068305</v>
+      </c>
+      <c r="H4" s="24">
+        <v>10526.781988143901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="24">
+        <v>296.36306762695301</v>
+      </c>
+      <c r="H5" s="24">
+        <v>333.88581275939902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="24">
+        <v>583.72969627380303</v>
+      </c>
+      <c r="H6" s="24">
+        <v>647.310972213745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1200.7586479187</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1266.8965339660599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="24">
+        <v>9357.8251361846906</v>
+      </c>
+      <c r="H8" s="24">
+        <v>10184.0240716934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="24">
+        <v>312.132501602172</v>
+      </c>
+      <c r="H9" s="24">
+        <v>352.32584476470902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="24">
+        <v>620.00894546508698</v>
+      </c>
+      <c r="H10" s="24">
+        <v>711.70029640197697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="24">
+        <v>1179.0846824645901</v>
+      </c>
+      <c r="H11" s="24">
+        <v>1305.06796836853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="24">
+        <v>2347.4867820739701</v>
+      </c>
+      <c r="H12" s="24">
+        <v>2648.58510494232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="24">
+        <v>560.12771129608097</v>
+      </c>
+      <c r="H13" s="24">
+        <v>623.65083694457996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="24">
+        <v>1200.42796134948</v>
+      </c>
+      <c r="H14" s="24">
+        <v>1287.4226808547901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="24">
+        <v>1203.06162834167</v>
+      </c>
+      <c r="H15" s="24">
+        <v>1307.45079517364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="24">
+        <v>2338.5088443756099</v>
+      </c>
+      <c r="H16" s="24">
+        <v>2563.27354907989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="24">
+        <v>594.41103935241699</v>
+      </c>
+      <c r="H17" s="24">
+        <v>654.13141250610295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1171.6313123703001</v>
+      </c>
+      <c r="H18" s="24">
+        <v>1317.5164937973</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1141.9191360473601</v>
+      </c>
+      <c r="H19" s="24">
+        <v>1265.2061223983701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="24">
+        <v>553.32205295562699</v>
+      </c>
+      <c r="H20" s="24">
+        <v>618.58625411987305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="24">
+        <v>5887.8401279449399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="24">
+        <v>11.7374420166015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="24">
+        <v>885.68539619445801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="24">
+        <v>42.967700958251903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="24">
+        <v>1576.87082290649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="24">
+        <v>5531.3859224319403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="24">
+        <v>723.69642257690396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="24">
+        <v>2010.86316108703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="24">
+        <v>1553.16112041473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="24">
+        <v>737.96732425689697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="24">
+        <v>314.75479602813698</v>
+      </c>
+      <c r="H34" s="24">
+        <v>349.79279041290198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="24">
+        <v>2401.7565250396701</v>
+      </c>
+      <c r="H35" s="24">
+        <v>2545.9532976150499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G36" s="24">
+        <v>69.708967208862305</v>
+      </c>
+      <c r="H36" s="24">
+        <v>88.539719581604004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="24">
+        <v>117.330884933471</v>
+      </c>
+      <c r="H37" s="24">
+        <v>132.71672725677399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="24">
+        <v>321.21205329895002</v>
+      </c>
+      <c r="H38" s="24">
+        <v>346.66957855224598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="24">
+        <v>2423.1790065765299</v>
+      </c>
+      <c r="H39" s="24">
+        <v>2577.0546197891199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="24">
+        <v>46.284103393554602</v>
+      </c>
+      <c r="H40" s="24">
+        <v>78.713274002075195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="24">
+        <v>96.666908264160099</v>
+      </c>
+      <c r="H41" s="24">
+        <v>109.989714622497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="24">
+        <v>312.84055709838799</v>
+      </c>
+      <c r="H42" s="24">
+        <v>335.07869243621798</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="24">
+        <v>601.22578144073395</v>
+      </c>
+      <c r="H43" s="24">
+        <v>636.26639842987004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="24">
+        <v>145.898103713989</v>
+      </c>
+      <c r="H44" s="24">
+        <v>172.97868728637599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="24">
+        <v>286.56330108642499</v>
+      </c>
+      <c r="H45" s="24">
+        <v>353.99408340454102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="24">
+        <v>319.63815689086903</v>
+      </c>
+      <c r="H46" s="24">
+        <v>339.62914943695</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="24">
+        <v>657.87019729614201</v>
+      </c>
+      <c r="H47" s="24">
+        <v>721.73857688903797</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="24">
+        <v>163.59925270080501</v>
+      </c>
+      <c r="H48" s="24">
+        <v>187.67244815826399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="24">
+        <v>319.80738639831497</v>
+      </c>
+      <c r="H49" s="24">
+        <v>367.87891387939402</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="24">
+        <v>309.36613082885702</v>
+      </c>
+      <c r="H50" s="24">
+        <v>327.440118789672</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="24">
+        <v>143.44890117645201</v>
+      </c>
+      <c r="H51" s="24">
+        <v>179.23693656921299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="24">
+        <v>7173.12841415405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="24">
+        <v>14.4013166427612</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="24">
+        <v>1238.2744789123501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="24">
+        <v>43.988680839538503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="24">
+        <v>1872.5175142288199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="24">
+        <v>5690.12770652771</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="24">
+        <v>786.17663383483796</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="24">
+        <v>1857.3823690414399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="24">
+        <v>1866.8323516845701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="24">
+        <v>789.66953754425003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
+        <v>63</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+      <c r="G65" s="24">
+        <v>77.636003494262695</v>
+      </c>
+      <c r="H65" s="24">
+        <v>88.585853576660099</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" t="s">
+        <v>64</v>
+      </c>
+      <c r="F66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" s="24">
+        <v>594.97451782226506</v>
+      </c>
+      <c r="H66" s="24">
+        <v>630.84030151367097</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" t="s">
+        <v>47</v>
+      </c>
+      <c r="G67" s="24">
+        <v>22.269248962402301</v>
+      </c>
+      <c r="H67" s="24">
+        <v>25.6402492523193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G68" s="24">
+        <v>52.283287048339801</v>
+      </c>
+      <c r="H68" s="24">
+        <v>59.303998947143498</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="s">
+        <v>39</v>
+      </c>
+      <c r="D69" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" t="s">
+        <v>63</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" s="24">
+        <v>72.0889568328857</v>
+      </c>
+      <c r="H69" s="24">
+        <v>88.450193405151296</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70" s="24">
+        <v>626.68013572692803</v>
+      </c>
+      <c r="H70" s="24">
+        <v>672.26934432983398</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>16</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" t="s">
+        <v>65</v>
+      </c>
+      <c r="F71" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" s="24">
+        <v>36.343336105346602</v>
+      </c>
+      <c r="H71" s="24">
+        <v>39.356470108032198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" t="s">
+        <v>43</v>
+      </c>
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" s="24">
+        <v>49.472570419311502</v>
+      </c>
+      <c r="H72" s="24">
+        <v>57.830572128295898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" t="s">
+        <v>49</v>
+      </c>
+      <c r="G73" s="24">
+        <v>71.796178817748995</v>
+      </c>
+      <c r="H73" s="24">
+        <v>80.328464508056598</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>16</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" s="24">
+        <v>167.33765602111799</v>
+      </c>
+      <c r="H74" s="24">
+        <v>181.99062347412101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75" s="24">
+        <v>51.807403564453097</v>
+      </c>
+      <c r="H75" s="24">
+        <v>55.844306945800703</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F76" t="s">
+        <v>52</v>
+      </c>
+      <c r="G76" s="24">
+        <v>92.985153198242102</v>
+      </c>
+      <c r="H76" s="24">
+        <v>99.988222122192298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" t="s">
+        <v>49</v>
+      </c>
+      <c r="G77" s="24">
+        <v>68.115711212158203</v>
+      </c>
+      <c r="H77" s="24">
+        <v>77.983379364013601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" t="s">
+        <v>68</v>
+      </c>
+      <c r="F78" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78" s="24">
+        <v>172.50657081604001</v>
+      </c>
+      <c r="H78" s="24">
+        <v>178.51066589355401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" s="24">
+        <v>46.982288360595703</v>
+      </c>
+      <c r="H79" s="24">
+        <v>49.073696136474602</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" t="s">
+        <v>52</v>
+      </c>
+      <c r="G80" s="24">
+        <v>87.054252624511705</v>
+      </c>
+      <c r="H80" s="24">
+        <v>101.938724517822</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81" s="24">
+        <v>81.380367279052706</v>
+      </c>
+      <c r="H81" s="24">
+        <v>88.159799575805593</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>53</v>
+      </c>
+      <c r="C82" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s">
+        <v>69</v>
+      </c>
+      <c r="F82" t="s">
+        <v>51</v>
+      </c>
+      <c r="G82" s="24">
+        <v>52.429676055908203</v>
+      </c>
+      <c r="H82" s="24">
+        <v>58.935165405273402</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" s="24">
+        <v>5935.6141090393003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" s="24">
+        <v>16.215562820434499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="24">
+        <v>1206.1681747436501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="24">
+        <v>38.001298904418903</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="24">
+        <v>1529.72507476806</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" s="24">
+        <v>4772.7956771850504</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="24">
+        <v>684.27348136901799</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="24">
+        <v>1740.28944969177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" s="24">
+        <v>1509.5431804656901</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" t="s">
+        <v>53</v>
+      </c>
+      <c r="D93" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="24">
+        <v>644.76513862609795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D402E31-C37D-4793-A991-19CCD6BD68C2}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2425,18 +5101,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" t="s">
         <v>13</v>
       </c>
@@ -2474,301 +5150,301 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="18">
         <v>5689.1848564147895</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="18">
         <v>1164.1726493835401</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="18">
         <v>1281.7871809005701</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="30"/>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="19">
         <v>8.521175384521479</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="19">
         <v>9363.8432979583704</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="19">
         <v>10217.011547088599</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="19">
         <v>1172.2061157226499</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="19">
         <v>288.02356719970703</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="19">
         <v>317.50280857086102</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="20">
         <v>15.9053087234497</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="20">
         <v>570.37258148193303</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="20">
         <v>630.84266185760498</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="28">
         <v>4</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="18">
         <v>5708.1523418426505</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="18">
         <v>331.89668655395496</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="18">
         <v>359.75167751312199</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="19">
         <v>5.9513568878173801</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="19">
         <v>2416.8826341629001</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="19">
         <v>2687.9068136215196</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="19">
         <v>1290.7857894897402</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="19">
         <v>78.989005088806096</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="19">
         <v>92.892241477966309</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="20">
         <v>19.809913635253899</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="20">
         <v>160.11447906494101</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="20">
         <v>185.88416576385399</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="28">
         <v>16</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>7141.6502952575602</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="18">
         <v>113.08567523956201</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="18">
         <v>125.851321220397</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="28" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="30"/>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="19">
         <v>12.7139329910278</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="19">
         <v>752.13937759399391</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="19">
         <v>842.69289970397904</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="19">
         <v>1209.32276248931</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="19">
         <v>29.604148864746001</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="19">
         <v>35.888552665710399</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="20">
         <v>20.2900886535644</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="20">
         <v>58.359122276306103</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="20">
         <v>69.944834709167409</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
@@ -2786,82 +5462,82 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <v>1281.7871809005701</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <v>359.75167751312199</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <v>125.851321220397</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>317.50280857086102</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>92.892241477966309</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="9">
         <v>35.888552665710399</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="9">
         <v>10217.011547088599</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="9">
         <v>2687.9068136215196</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="9">
         <v>842.69289970397904</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>630.84266185760498</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <v>185.88416576385399</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="10">
         <v>69.944834709167409</v>
       </c>
     </row>
@@ -2880,13 +5556,13 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -2898,23 +5574,23 @@
       <c r="D24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="10"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <f>AVERAGE(F3,F7,F11)</f>
         <v>6179.6624978383334</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="14"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2929,52 +5605,52 @@
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="9">
         <f>AVERAGE(F5,F9,F13)</f>
         <v>1224.1048892339002</v>
       </c>
-      <c r="E26" s="17"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="9">
         <f>AVERAGE(F4,F8,F12)</f>
         <v>9.0621550877888861</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="10">
         <f>AVERAGE(F6,F10,F14)</f>
         <v>18.668437004089331</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="12" t="s">
         <v>19</v>
       </c>
     </row>

--- a/gemm/Performance_Results.xlsx
+++ b/gemm/Performance_Results.xlsx
@@ -1,5 +1,5 @@
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1188,7 +1188,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1228,7 +1228,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1268,7 +1268,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1784,7 +1784,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2302,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3196CDE-7DD8-4B24-B46D-E8AFD451E1FA}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="N29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ46" sqref="AJ46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2325,50 +2325,54 @@
     <col min="13" max="13" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G1" s="34" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="I1" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="J2" s="23" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="K2" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="M2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23" t="s">
         <v>35</v>
@@ -2391,30 +2395,33 @@
       <c r="H3" s="7">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="7">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="24">
-        <v>5935.6141090393003</v>
-      </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="24">
-        <v>5935.6141090393003</v>
-      </c>
+      <c r="N3" s="24">
+        <v>5602.5973796844401</v>
+      </c>
+      <c r="O3" s="14"/>
       <c r="P3" s="24">
-        <v>5935.6141090393003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5602.5973796844401</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>5602.5973796844401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>33</v>
       </c>
@@ -2437,32 +2444,35 @@
         <v>349.79279041290198</v>
       </c>
       <c r="H4" s="24">
-        <v>88.585853576660099</v>
-      </c>
-      <c r="I4" t="s">
+        <v>88.439083099365206</v>
+      </c>
+      <c r="I4" s="24">
+        <v>108.528447151184</v>
+      </c>
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="24">
-        <v>1206.1681747436501</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="24">
-        <v>1206.1681747436501</v>
-      </c>
+      <c r="N4" s="24">
+        <v>1129.1275024414001</v>
+      </c>
+      <c r="O4" s="14"/>
       <c r="P4" s="24">
-        <v>1206.1681747436501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1129.1275024414001</v>
+      </c>
+      <c r="Q4" s="24">
+        <v>1129.1275024414001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
@@ -2485,32 +2495,35 @@
         <v>88.539719581604004</v>
       </c>
       <c r="H5" s="24">
-        <v>25.6402492523193</v>
-      </c>
-      <c r="I5" t="s">
+        <v>35.051631927490199</v>
+      </c>
+      <c r="I5" s="24">
+        <v>37.345504760742102</v>
+      </c>
+      <c r="J5" t="s">
         <v>4</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="24">
-        <v>1529.72507476806</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="24">
-        <v>1529.72507476806</v>
-      </c>
+      <c r="N5" s="24">
+        <v>1525.2731323242101</v>
+      </c>
+      <c r="O5" s="14"/>
       <c r="P5" s="24">
-        <v>1529.72507476806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1525.2731323242101</v>
+      </c>
+      <c r="Q5" s="24">
+        <v>1525.2731323242101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>33</v>
       </c>
@@ -2533,32 +2546,35 @@
         <v>335.07869243621798</v>
       </c>
       <c r="H6" s="24">
-        <v>80.328464508056598</v>
-      </c>
-      <c r="I6" t="s">
+        <v>91.157484054565401</v>
+      </c>
+      <c r="I6" s="24">
+        <v>88.757967948913503</v>
+      </c>
+      <c r="J6" t="s">
         <v>4</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="24">
-        <v>684.27348136901799</v>
-      </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="24">
-        <v>684.27348136901799</v>
-      </c>
+      <c r="N6" s="24">
+        <v>647.73695468902497</v>
+      </c>
+      <c r="O6" s="14"/>
       <c r="P6" s="24">
-        <v>684.27348136901799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>647.73695468902497</v>
+      </c>
+      <c r="Q6" s="24">
+        <v>647.73695468902497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
@@ -2581,31 +2597,34 @@
         <v>172.97868728637599</v>
       </c>
       <c r="H7" s="24">
-        <v>55.844306945800703</v>
-      </c>
-      <c r="I7" t="s">
+        <v>50.162458419799798</v>
+      </c>
+      <c r="I7" s="24">
+        <v>65.280055999755803</v>
+      </c>
+      <c r="J7" t="s">
         <v>4</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>5</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="24">
-        <v>1509.5431804656901</v>
-      </c>
-      <c r="O7" s="24">
-        <v>1509.5431804656901</v>
+      <c r="N7" s="24">
+        <v>1527.2670030593799</v>
       </c>
       <c r="P7" s="24">
-        <v>1509.5431804656901</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1527.2670030593799</v>
+      </c>
+      <c r="Q7" s="24">
+        <v>1527.2670030593799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>33</v>
       </c>
@@ -2628,31 +2647,34 @@
         <v>346.66957855224598</v>
       </c>
       <c r="H8" s="24">
-        <v>88.450193405151296</v>
-      </c>
-      <c r="I8" t="s">
+        <v>91.277098655700598</v>
+      </c>
+      <c r="I8" s="24">
+        <v>77.175593376159597</v>
+      </c>
+      <c r="J8" t="s">
         <v>4</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>5</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="24">
-        <v>644.76513862609795</v>
-      </c>
-      <c r="O8" s="24">
-        <v>644.76513862609795</v>
+      <c r="N8" s="24">
+        <v>727.76646614074696</v>
       </c>
       <c r="P8" s="24">
-        <v>644.76513862609795</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+        <v>727.76646614074696</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>727.76646614074696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
@@ -2675,31 +2697,34 @@
         <v>78.713274002075195</v>
       </c>
       <c r="H9" s="24">
-        <v>39.356470108032198</v>
-      </c>
-      <c r="I9" t="s">
+        <v>29.814243316650298</v>
+      </c>
+      <c r="I9" s="24">
+        <v>31.673622131347599</v>
+      </c>
+      <c r="J9" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="24">
-        <v>16.215562820434499</v>
-      </c>
-      <c r="O9" s="24">
-        <v>16.215562820434499</v>
+      <c r="N9" s="24">
+        <v>10.190629959106399</v>
       </c>
       <c r="P9" s="24">
-        <v>16.215562820434499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>10.190629959106399</v>
+      </c>
+      <c r="Q9" s="24">
+        <v>10.190629959106399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -2722,31 +2747,34 @@
         <v>339.62914943695</v>
       </c>
       <c r="H10" s="24">
-        <v>77.983379364013601</v>
-      </c>
-      <c r="I10" t="s">
+        <v>82.832837104797306</v>
+      </c>
+      <c r="I10" s="24">
+        <v>70.231199264526296</v>
+      </c>
+      <c r="J10" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="24">
-        <v>38.001298904418903</v>
-      </c>
-      <c r="O10" s="24">
-        <v>38.001298904418903</v>
+      <c r="N10" s="24">
+        <v>36.996316909790004</v>
       </c>
       <c r="P10" s="24">
-        <v>38.001298904418903</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+        <v>36.996316909790004</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>36.996316909790004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
@@ -2769,31 +2797,37 @@
         <v>187.67244815826399</v>
       </c>
       <c r="H11" s="24">
-        <v>49.073696136474602</v>
-      </c>
-      <c r="I11" t="s">
+        <v>52.835321426391602</v>
+      </c>
+      <c r="I11" s="24">
+        <v>58.136677742004302</v>
+      </c>
+      <c r="J11" t="s">
         <v>4</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="24">
-        <v>4772.7956771850504</v>
-      </c>
-      <c r="O11" s="24">
-        <v>4772.7956771850504</v>
+      <c r="N11" s="24">
+        <v>4716.1022663116401</v>
       </c>
       <c r="P11" s="24">
-        <v>4772.7956771850504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>4716.1022663116401</v>
+      </c>
+      <c r="Q11" s="24">
+        <v>4716.1022663116401</v>
+      </c>
+      <c r="R11" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>33</v>
       </c>
@@ -2816,31 +2850,34 @@
         <v>327.440118789672</v>
       </c>
       <c r="H12" s="24">
-        <v>88.159799575805593</v>
-      </c>
-      <c r="I12" t="s">
+        <v>90.101504325866699</v>
+      </c>
+      <c r="I12" s="24">
+        <v>81.354117393493596</v>
+      </c>
+      <c r="J12" t="s">
         <v>4</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="24">
-        <v>1740.28944969177</v>
-      </c>
-      <c r="O12" s="24">
-        <v>1740.28944969177</v>
+      <c r="N12" s="24">
+        <v>1722.4748134613001</v>
       </c>
       <c r="P12" s="24">
-        <v>1740.28944969177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>1722.4748134613001</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>1722.4748134613001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>33</v>
       </c>
@@ -2863,10 +2900,13 @@
         <v>179.23693656921299</v>
       </c>
       <c r="H13" s="24">
-        <v>58.935165405273402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>50.256061553955</v>
+      </c>
+      <c r="I13" s="24">
+        <v>64.868521690368596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>33</v>
       </c>
@@ -2889,10 +2929,13 @@
         <v>2545.9532976150499</v>
       </c>
       <c r="H14" s="24">
-        <v>630.84030151367097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+        <v>627.75597572326603</v>
+      </c>
+      <c r="I14" s="24">
+        <v>416.438913345336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>33</v>
       </c>
@@ -2915,10 +2958,13 @@
         <v>132.71672725677399</v>
       </c>
       <c r="H15" s="24">
-        <v>59.303998947143498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+        <v>75.055694580078097</v>
+      </c>
+      <c r="I15" s="24">
+        <v>77.454710006713796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>33</v>
       </c>
@@ -2941,10 +2987,13 @@
         <v>636.26639842987004</v>
       </c>
       <c r="H16" s="24">
-        <v>181.99062347412101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>181.57274723052899</v>
+      </c>
+      <c r="I16" s="24">
+        <v>119.46225166320799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
@@ -2967,10 +3016,13 @@
         <v>353.99408340454102</v>
       </c>
       <c r="H17" s="24">
-        <v>99.988222122192298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>125.227642059326</v>
+      </c>
+      <c r="I17" s="24">
+        <v>130.24218082427899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
@@ -2993,10 +3045,13 @@
         <v>2577.0546197891199</v>
       </c>
       <c r="H18" s="24">
-        <v>672.26934432983398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>655.80103397369305</v>
+      </c>
+      <c r="I18" s="24">
+        <v>579.57146167755104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
@@ -3019,10 +3074,13 @@
         <v>109.989714622497</v>
       </c>
       <c r="H19" s="24">
-        <v>57.830572128295898</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60.235357284545898</v>
+      </c>
+      <c r="I19" s="24">
+        <v>61.998915672302203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
@@ -3045,10 +3103,13 @@
         <v>721.73857688903797</v>
       </c>
       <c r="H20" s="24">
-        <v>178.51066589355401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>184.496927261352</v>
+      </c>
+      <c r="I20" s="24">
+        <v>185.083484649658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>33</v>
       </c>
@@ -3071,10 +3132,13 @@
         <v>367.87891387939402</v>
       </c>
       <c r="H21" s="24">
-        <v>101.938724517822</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>114.971089363098</v>
+      </c>
+      <c r="I21" s="24">
+        <v>113.276624679565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -3083,14 +3147,14 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F2:H2"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3099,10 +3163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A96D9F-BFBD-46AC-A0B7-AB81248FE666}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92:E93"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="H80" activeCellId="3" sqref="H70 H72 H78 H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4423,6 +4487,11 @@
         <v>789.66953754425003</v>
       </c>
     </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
@@ -4469,10 +4538,10 @@
         <v>42</v>
       </c>
       <c r="G65" s="24">
-        <v>77.636003494262695</v>
+        <v>81.046652793884206</v>
       </c>
       <c r="H65" s="24">
-        <v>88.585853576660099</v>
+        <v>88.439083099365206</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -4495,10 +4564,10 @@
         <v>45</v>
       </c>
       <c r="G66" s="24">
-        <v>594.97451782226506</v>
+        <v>591.03634357452302</v>
       </c>
       <c r="H66" s="24">
-        <v>630.84030151367097</v>
+        <v>627.75597572326603</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4521,10 +4590,10 @@
         <v>47</v>
       </c>
       <c r="G67" s="24">
-        <v>22.269248962402301</v>
+        <v>32.0436239242553</v>
       </c>
       <c r="H67" s="24">
-        <v>25.6402492523193</v>
+        <v>35.051631927490199</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4547,10 +4616,10 @@
         <v>48</v>
       </c>
       <c r="G68" s="24">
-        <v>52.283287048339801</v>
+        <v>66.1764621734619</v>
       </c>
       <c r="H68" s="24">
-        <v>59.303998947143498</v>
+        <v>75.055694580078097</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -4573,10 +4642,10 @@
         <v>42</v>
       </c>
       <c r="G69" s="24">
-        <v>72.0889568328857</v>
+        <v>79.364037513732896</v>
       </c>
       <c r="H69" s="24">
-        <v>88.450193405151296</v>
+        <v>91.277098655700598</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -4599,10 +4668,10 @@
         <v>45</v>
       </c>
       <c r="G70" s="24">
-        <v>626.68013572692803</v>
+        <v>617.08080768585205</v>
       </c>
       <c r="H70" s="24">
-        <v>672.26934432983398</v>
+        <v>655.80103397369305</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -4625,10 +4694,10 @@
         <v>47</v>
       </c>
       <c r="G71" s="24">
-        <v>36.343336105346602</v>
+        <v>25.6085157394409</v>
       </c>
       <c r="H71" s="24">
-        <v>39.356470108032198</v>
+        <v>29.814243316650298</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -4651,10 +4720,10 @@
         <v>48</v>
       </c>
       <c r="G72" s="24">
-        <v>49.472570419311502</v>
+        <v>49.512720108032198</v>
       </c>
       <c r="H72" s="24">
-        <v>57.830572128295898</v>
+        <v>60.235357284545898</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -4677,10 +4746,10 @@
         <v>49</v>
       </c>
       <c r="G73" s="24">
-        <v>71.796178817748995</v>
+        <v>84.143042564392005</v>
       </c>
       <c r="H73" s="24">
-        <v>80.328464508056598</v>
+        <v>91.157484054565401</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -4703,10 +4772,10 @@
         <v>50</v>
       </c>
       <c r="G74" s="24">
-        <v>167.33765602111799</v>
+        <v>168.06826591491699</v>
       </c>
       <c r="H74" s="24">
-        <v>181.99062347412101</v>
+        <v>181.57274723052899</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -4729,10 +4798,10 @@
         <v>51</v>
       </c>
       <c r="G75" s="24">
-        <v>51.807403564453097</v>
+        <v>45.983314514160099</v>
       </c>
       <c r="H75" s="24">
-        <v>55.844306945800703</v>
+        <v>50.162458419799798</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -4755,10 +4824,10 @@
         <v>52</v>
       </c>
       <c r="G76" s="24">
-        <v>92.985153198242102</v>
+        <v>116.271901130676</v>
       </c>
       <c r="H76" s="24">
-        <v>99.988222122192298</v>
+        <v>125.227642059326</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -4781,10 +4850,10 @@
         <v>49</v>
       </c>
       <c r="G77" s="24">
-        <v>68.115711212158203</v>
+        <v>76.623225212097097</v>
       </c>
       <c r="H77" s="24">
-        <v>77.983379364013601</v>
+        <v>82.832837104797306</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -4807,10 +4876,10 @@
         <v>50</v>
       </c>
       <c r="G78" s="24">
-        <v>172.50657081604001</v>
+        <v>172.020030021667</v>
       </c>
       <c r="H78" s="24">
-        <v>178.51066589355401</v>
+        <v>184.496927261352</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -4833,10 +4902,10 @@
         <v>51</v>
       </c>
       <c r="G79" s="24">
-        <v>46.982288360595703</v>
+        <v>47.1878051757812</v>
       </c>
       <c r="H79" s="24">
-        <v>49.073696136474602</v>
+        <v>52.835321426391602</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -4859,10 +4928,10 @@
         <v>52</v>
       </c>
       <c r="G80" s="24">
-        <v>87.054252624511705</v>
+        <v>104.697108268737</v>
       </c>
       <c r="H80" s="24">
-        <v>101.938724517822</v>
+        <v>114.971089363098</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -4885,10 +4954,10 @@
         <v>49</v>
       </c>
       <c r="G81" s="24">
-        <v>81.380367279052706</v>
+        <v>81.493687629699707</v>
       </c>
       <c r="H81" s="24">
-        <v>88.159799575805593</v>
+        <v>90.101504325866699</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -4911,10 +4980,10 @@
         <v>51</v>
       </c>
       <c r="G82" s="24">
-        <v>52.429676055908203</v>
+        <v>44.741034507751401</v>
       </c>
       <c r="H82" s="24">
-        <v>58.935165405273402</v>
+        <v>50.256061553955</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -4945,7 +5014,7 @@
         <v>41</v>
       </c>
       <c r="E84" s="24">
-        <v>5935.6141090393003</v>
+        <v>5603.4663915634101</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -4959,7 +5028,7 @@
         <v>41</v>
       </c>
       <c r="E85" s="24">
-        <v>16.215562820434499</v>
+        <v>8.5654735565185494</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -4973,7 +5042,7 @@
         <v>46</v>
       </c>
       <c r="E86" s="24">
-        <v>1206.1681747436501</v>
+        <v>1138.49854469299</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -4987,7 +5056,7 @@
         <v>46</v>
       </c>
       <c r="E87" s="24">
-        <v>38.001298904418903</v>
+        <v>37.660574913024902</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -5001,7 +5070,7 @@
         <v>41</v>
       </c>
       <c r="E88" s="24">
-        <v>1529.72507476806</v>
+        <v>1509.2229604721001</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -5015,7 +5084,7 @@
         <v>41</v>
       </c>
       <c r="E89" s="24">
-        <v>4772.7956771850504</v>
+        <v>4661.41269207</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -5029,7 +5098,7 @@
         <v>46</v>
       </c>
       <c r="E90" s="24">
-        <v>684.27348136901799</v>
+        <v>638.90047073364201</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -5043,7 +5112,7 @@
         <v>46</v>
       </c>
       <c r="E91" s="24">
-        <v>1740.28944969177</v>
+        <v>1722.53415584564</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -5057,7 +5126,7 @@
         <v>41</v>
       </c>
       <c r="E92" s="24">
-        <v>1509.5431804656901</v>
+        <v>1516.88463687896</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -5071,7 +5140,663 @@
         <v>46</v>
       </c>
       <c r="E93" s="24">
-        <v>644.76513862609795</v>
+        <v>663.06173801422096</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" t="s">
+        <v>40</v>
+      </c>
+      <c r="D96" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" t="s">
+        <v>63</v>
+      </c>
+      <c r="F96" t="s">
+        <v>42</v>
+      </c>
+      <c r="G96" s="24">
+        <v>97.852206230163503</v>
+      </c>
+      <c r="H96" s="24">
+        <v>108.528447151184</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" t="s">
+        <v>45</v>
+      </c>
+      <c r="G97" s="24">
+        <v>380.50017356872502</v>
+      </c>
+      <c r="H97" s="24">
+        <v>416.438913345336</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" t="s">
+        <v>47</v>
+      </c>
+      <c r="G98" s="24">
+        <v>33.360147476196197</v>
+      </c>
+      <c r="H98" s="24">
+        <v>37.345504760742102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" t="s">
+        <v>48</v>
+      </c>
+      <c r="G99" s="24">
+        <v>66.099548339843693</v>
+      </c>
+      <c r="H99" s="24">
+        <v>77.454710006713796</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" t="s">
+        <v>39</v>
+      </c>
+      <c r="D100" t="s">
+        <v>41</v>
+      </c>
+      <c r="E100" t="s">
+        <v>63</v>
+      </c>
+      <c r="F100" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" s="24">
+        <v>72.629475593566895</v>
+      </c>
+      <c r="H100" s="24">
+        <v>77.175593376159597</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D101" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" t="s">
+        <v>64</v>
+      </c>
+      <c r="F101" t="s">
+        <v>45</v>
+      </c>
+      <c r="G101" s="24">
+        <v>543.20113658904995</v>
+      </c>
+      <c r="H101" s="24">
+        <v>579.57146167755104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" t="s">
+        <v>46</v>
+      </c>
+      <c r="E102" t="s">
+        <v>65</v>
+      </c>
+      <c r="F102" t="s">
+        <v>47</v>
+      </c>
+      <c r="G102" s="24">
+        <v>26.168966293334901</v>
+      </c>
+      <c r="H102" s="24">
+        <v>31.673622131347599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" t="s">
+        <v>48</v>
+      </c>
+      <c r="G103" s="24">
+        <v>52.126693725585902</v>
+      </c>
+      <c r="H103" s="24">
+        <v>61.998915672302203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>16</v>
+      </c>
+      <c r="B104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104" t="s">
+        <v>49</v>
+      </c>
+      <c r="G104" s="24">
+        <v>83.588337898254395</v>
+      </c>
+      <c r="H104" s="24">
+        <v>88.757967948913503</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>16</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" t="s">
+        <v>68</v>
+      </c>
+      <c r="F105" t="s">
+        <v>50</v>
+      </c>
+      <c r="G105" s="24">
+        <v>112.718892097473</v>
+      </c>
+      <c r="H105" s="24">
+        <v>119.46225166320799</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" t="s">
+        <v>69</v>
+      </c>
+      <c r="F106" t="s">
+        <v>51</v>
+      </c>
+      <c r="G106" s="24">
+        <v>59.332156181335399</v>
+      </c>
+      <c r="H106" s="24">
+        <v>65.280055999755803</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>16</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" t="s">
+        <v>70</v>
+      </c>
+      <c r="F107" t="s">
+        <v>52</v>
+      </c>
+      <c r="G107" s="24">
+        <v>117.02435016632</v>
+      </c>
+      <c r="H107" s="24">
+        <v>130.24218082427899</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" t="s">
+        <v>39</v>
+      </c>
+      <c r="D108" t="s">
+        <v>41</v>
+      </c>
+      <c r="E108" t="s">
+        <v>67</v>
+      </c>
+      <c r="F108" t="s">
+        <v>49</v>
+      </c>
+      <c r="G108" s="24">
+        <v>66.201591491699205</v>
+      </c>
+      <c r="H108" s="24">
+        <v>70.231199264526296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" t="s">
+        <v>41</v>
+      </c>
+      <c r="E109" t="s">
+        <v>68</v>
+      </c>
+      <c r="F109" t="s">
+        <v>50</v>
+      </c>
+      <c r="G109" s="24">
+        <v>168.291282653808</v>
+      </c>
+      <c r="H109" s="24">
+        <v>185.083484649658</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>16</v>
+      </c>
+      <c r="B110" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" t="s">
+        <v>46</v>
+      </c>
+      <c r="E110" t="s">
+        <v>69</v>
+      </c>
+      <c r="F110" t="s">
+        <v>51</v>
+      </c>
+      <c r="G110" s="24">
+        <v>51.389670372009199</v>
+      </c>
+      <c r="H110" s="24">
+        <v>58.136677742004302</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>16</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" t="s">
+        <v>43</v>
+      </c>
+      <c r="D111" t="s">
+        <v>46</v>
+      </c>
+      <c r="E111" t="s">
+        <v>70</v>
+      </c>
+      <c r="F111" t="s">
+        <v>52</v>
+      </c>
+      <c r="G111" s="24">
+        <v>101.811051368713</v>
+      </c>
+      <c r="H111" s="24">
+        <v>113.276624679565</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" t="s">
+        <v>53</v>
+      </c>
+      <c r="D112" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" t="s">
+        <v>67</v>
+      </c>
+      <c r="F112" t="s">
+        <v>49</v>
+      </c>
+      <c r="G112" s="24">
+        <v>76.450443267822195</v>
+      </c>
+      <c r="H112" s="24">
+        <v>81.354117393493596</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" t="s">
+        <v>53</v>
+      </c>
+      <c r="D113" t="s">
+        <v>46</v>
+      </c>
+      <c r="E113" t="s">
+        <v>69</v>
+      </c>
+      <c r="F113" t="s">
+        <v>51</v>
+      </c>
+      <c r="G113" s="24">
+        <v>57.201266288757303</v>
+      </c>
+      <c r="H113" s="24">
+        <v>64.868521690368596</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>39</v>
+      </c>
+      <c r="C115" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" s="24">
+        <v>5600.4622936248697</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>55</v>
+      </c>
+      <c r="C116" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" s="24">
+        <v>13.1986379623413</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" t="s">
+        <v>46</v>
+      </c>
+      <c r="E117" s="24">
+        <v>1130.4092168807899</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>55</v>
+      </c>
+      <c r="C118" t="s">
+        <v>44</v>
+      </c>
+      <c r="D118" t="s">
+        <v>46</v>
+      </c>
+      <c r="E118" s="24">
+        <v>37.013983726501401</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>39</v>
+      </c>
+      <c r="C119" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" t="s">
+        <v>41</v>
+      </c>
+      <c r="E119" s="24">
+        <v>1512.9376649856499</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>55</v>
+      </c>
+      <c r="C120" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" t="s">
+        <v>41</v>
+      </c>
+      <c r="E120" s="24">
+        <v>4677.09131240844</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" t="s">
+        <v>39</v>
+      </c>
+      <c r="D121" t="s">
+        <v>46</v>
+      </c>
+      <c r="E121" s="24">
+        <v>656.31177425384499</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>55</v>
+      </c>
+      <c r="C122" t="s">
+        <v>55</v>
+      </c>
+      <c r="D122" t="s">
+        <v>46</v>
+      </c>
+      <c r="E122" s="24">
+        <v>1716.4659023284901</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>53</v>
+      </c>
+      <c r="C123" t="s">
+        <v>53</v>
+      </c>
+      <c r="D123" t="s">
+        <v>41</v>
+      </c>
+      <c r="E123" s="24">
+        <v>1492.0829534530601</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>53</v>
+      </c>
+      <c r="C124" t="s">
+        <v>53</v>
+      </c>
+      <c r="D124" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" s="24">
+        <v>646.25608921051003</v>
       </c>
     </row>
   </sheetData>
@@ -5084,8 +5809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D402E31-C37D-4793-A991-19CCD6BD68C2}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5101,18 +5826,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
       <c r="I1" t="s">
         <v>13</v>
       </c>
@@ -5150,13 +5875,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -5176,11 +5901,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="31"/>
       <c r="D4" s="22" t="s">
         <v>32</v>
       </c>
@@ -5198,11 +5923,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="22" t="s">
@@ -5222,11 +5947,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
@@ -5244,13 +5969,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="A7" s="29">
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="21" t="s">
@@ -5270,11 +5995,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="31"/>
       <c r="D8" s="22" t="s">
         <v>29</v>
       </c>
@@ -5292,11 +6017,11 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="22" t="s">
@@ -5316,11 +6041,11 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="33"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="13" t="s">
         <v>31</v>
       </c>
@@ -5338,13 +6063,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="A11" s="29">
         <v>16</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="21" t="s">
@@ -5364,11 +6089,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="22" t="s">
         <v>21</v>
       </c>
@@ -5386,11 +6111,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="33" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="22" t="s">
@@ -5410,11 +6135,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="33"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="13" t="s">
         <v>23</v>
       </c>
@@ -5557,10 +6282,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
